--- a/biology/Zoologie/Atractotomus_parvulus/Atractotomus_parvulus.xlsx
+++ b/biology/Zoologie/Atractotomus_parvulus/Atractotomus_parvulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atractotomus parvulus est une espèce d'insectes hémiptères de la famille des Miridae.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme A. magnicornis et A. mali, A. parvalus est une petite punaise de couleur noire ou rouge-brun foncée, dont la surface supérieure est couverte de soies dorées ou argentées[1] .
-L'adulte a une taille d'environ 3 mm[1].
-Le premier segment de l'antenne est cylindrique chez le mâle comme chez la femelle, tandis que le deuxième segment est épaissi chez la seule femelle. Il partage cette caractéristique avec A. magnicornis, chez qui le deuxième segment de l'antenne est un peu plus long[1] .
-A. parvalus affectionne le pin sylvestre tandis que A. magnicornis préfère l'épicéa commun[1] .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme A. magnicornis et A. mali, A. parvalus est une petite punaise de couleur noire ou rouge-brun foncée, dont la surface supérieure est couverte de soies dorées ou argentées .
+L'adulte a une taille d'environ 3 mm.
+Le premier segment de l'antenne est cylindrique chez le mâle comme chez la femelle, tandis que le deuxième segment est épaissi chez la seule femelle. Il partage cette caractéristique avec A. magnicornis, chez qui le deuxième segment de l'antenne est un peu plus long .
+A. parvalus affectionne le pin sylvestre tandis que A. magnicornis préfère l'épicéa commun .
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractotomus parvulus se rencontre de la Grande-Bretagne et la France jusqu'à l'Ouest de la Pologne et de la République tchèque[2].
-On le rencontre également dans le Sud de la Suède et de la Norvège[2] où cette espèce est enregistrée comme invasive[2],[3]. 
-Elle est également signalée en Croatie et dans le Nord du Maroc[2] .
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractotomus parvulus se rencontre de la Grande-Bretagne et la France jusqu'à l'Ouest de la Pologne et de la République tchèque.
+On le rencontre également dans le Sud de la Suède et de la Norvège où cette espèce est enregistrée comme invasive,. 
+Elle est également signalée en Croatie et dans le Nord du Maroc .
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Atractotomus parvulus Reuter, 1878[2].
-Atractotomus parvulus a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Atractotomus parvulus Reuter, 1878.
+Atractotomus parvulus a pour synonymes :
 Atractotomus brevicornis Reuter, 1899
 Atractotomus mirificus Woodroffe, 1971
 Atractotomus parvulus Wagner &amp; Weber, 1964</t>
